--- a/Document/Hospital - Design Document V1.xlsx
+++ b/Document/Hospital - Design Document V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="182">
   <si>
     <t>Patient ID</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reviewed By: </t>
+  </si>
+  <si>
+    <t>Prate</t>
   </si>
 </sst>
 </file>
@@ -1102,18 +1105,48 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,36 +1159,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,6 +1231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1245,9 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1261,35 +1264,35 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1583,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1607,38 +1610,38 @@
     </row>
     <row r="3" spans="2:6" ht="27" thickBot="1">
       <c r="B3" s="34"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="2:6" s="17" customFormat="1" ht="27" thickBot="1">
       <c r="B4" s="34"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="2:6" s="17" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="B5" s="34"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="45"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="34"/>
       <c r="C6" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="2:6">
@@ -1646,10 +1649,10 @@
       <c r="C7" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="2:6">
@@ -1657,10 +1660,10 @@
       <c r="C8" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="43">
         <v>42394</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="36"/>
     </row>
     <row r="9" spans="2:6">
@@ -1668,10 +1671,10 @@
       <c r="C9" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="36"/>
     </row>
     <row r="10" spans="2:6">
@@ -1679,10 +1682,10 @@
       <c r="C10" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="43">
         <v>42402</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="36"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1">
@@ -1690,17 +1693,17 @@
       <c r="C11" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1">
       <c r="B12" s="34"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="36"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1">
@@ -1812,24 +1815,24 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1">
       <c r="B24" s="35"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" location="'Registration Entry Form'!A1" display="Registration Entry Form"/>
@@ -2061,10 +2064,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2150,6 +2153,17 @@
       </c>
       <c r="D6" s="8" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2885,10 +2899,10 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <controls>
-    <control shapeId="7191" r:id="rId3" name="TextBox2"/>
-    <control shapeId="7190" r:id="rId4" name="Label2"/>
-    <control shapeId="7189" r:id="rId5" name="TextBox1"/>
-    <control shapeId="7188" r:id="rId6" name="Label1"/>
+    <control shapeId="7188" r:id="rId3" name="Label1"/>
+    <control shapeId="7189" r:id="rId4" name="TextBox1"/>
+    <control shapeId="7190" r:id="rId5" name="Label2"/>
+    <control shapeId="7191" r:id="rId6" name="TextBox2"/>
   </controls>
 </worksheet>
 </file>
@@ -3019,11 +3033,11 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="84">
         <v>2546854955</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="74"/>
       <c r="F6" s="1" t="s">
         <v>159</v>
@@ -3079,20 +3093,20 @@
       <c r="C10" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="86"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="86"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="18" t="s">
         <v>135</v>
       </c>
@@ -3190,16 +3204,16 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="65"/>
@@ -3253,12 +3267,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A16:J17"/>
@@ -3275,6 +3283,12 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J19" location="Index!A1" display="Back"/>
@@ -3286,10 +3300,10 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <controls>
-    <control shapeId="1048" r:id="rId3" name="TextBox2"/>
-    <control shapeId="1047" r:id="rId4" name="Label2"/>
-    <control shapeId="1044" r:id="rId5" name="TextBox1"/>
-    <control shapeId="1043" r:id="rId6" name="Label1"/>
+    <control shapeId="1043" r:id="rId3" name="Label1"/>
+    <control shapeId="1044" r:id="rId4" name="TextBox1"/>
+    <control shapeId="1047" r:id="rId5" name="Label2"/>
+    <control shapeId="1048" r:id="rId6" name="TextBox2"/>
   </controls>
 </worksheet>
 </file>
